--- a/Implementación/Test 2/pareto.xlsx
+++ b/Implementación/Test 2/pareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA654BA8-9940-4903-B814-27F697F4BD73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FD4534-480F-4472-9E68-5F68F58C5596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{7E81EAF9-21B0-4CD5-995B-BBBE573ED3AE}"/>
   </bookViews>
